--- a/SqlServerDBTable/音乐相关/STORATE_PATH.xlsx
+++ b/SqlServerDBTable/音乐相关/STORATE_PATH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <r>
       <t>每一</t>
@@ -168,6 +168,40 @@
         <scheme val="minor"/>
       </rPr>
       <t>.mp3</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>曲目既有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>编号</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>曲目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>编号</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -531,7 +565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -564,12 +598,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/SqlServerDBTable/音乐相关/STORATE_PATH.xlsx
+++ b/SqlServerDBTable/音乐相关/STORATE_PATH.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="T_STORAGE_MST" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <r>
       <t>每一</t>
@@ -202,6 +202,27 @@
         <scheme val="minor"/>
       </rPr>
       <t>编号</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>备份目录</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>主目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>录</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -265,8 +286,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -600,7 +624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -625,12 +649,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>101</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>201</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
